--- a/biology/Botanique/Cucurbita_argyrosperma/Cucurbita_argyrosperma.xlsx
+++ b/biology/Botanique/Cucurbita_argyrosperma/Cucurbita_argyrosperma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cucurbita argyrosperma (la courge du Mexique) est une espèce de plantes à fleurs de la famille des Cucurbitaceae, originaire du sud du Mexique. Cette plante herbacée annuelle rampante est cultivée en Amérique comme plante alimentaire, à la fois pour ses fleurs, ses jeunes pousses et ses fruits, mais surtout pour ses graines, qui servent, moulues ou grillées, à la préparation de nombreuses sauces.
 C'est la moins diffusée hors d'Amérique des espèces cultivées de Cucurbita, mais elle a été récemment l'objet d'études importantes et s'est répandue aux États-Unis sous le nom de Cushaw.
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cucurbita argyrosperma est une plante herbacée annuelle caulescente, rampante ou grimpante ; sa tige montre des trichomes courts, durs et anguleux. La pilosité de la plante peut varier de légèrement velue à hirsute. Les racines sont fibreuses et superficielles, et des vrilles apicales la fixent à la végétation et au sol.
 Les feuilles, au limbe tacheté de blanc, sont grandes, ovales et cordées, légèrement trilobées, aux lobes elliptiques ou triangulaires, atteignant de 30 à 40 cm en longueur et en largeur, aux bords serrés ou dentés, avec un pétiole allant jusqu'à 30 cm de long.
@@ -546,7 +560,9 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cucurbita argyrosperma présente trois cultivars de distribution bien différenciée, mais en général cultivés en zones chaudes, relativement sèches, avec une saison pluvieuse nettement délimitée ; elle peut atteindre 1800 mètres d'altitude, mais tolère mal les basses températures. Elle requiert un sol fertile, humide mais bien drainé, et une exposition ensoleillée et protégée du vent. Elle résiste mal aux gelées et à la sécheresse ; les racines souffrent aussi en cas d'excès de pluies.
 La domestication de la courge mexicaine s'est probablement réalisée au Mexique il y a plus de 7000 ans.
@@ -584,7 +600,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fleurs, les pousses, les tiges et les fruits imatures de Cucurbita argyrosperma se consomment comme légumes. Dans le sud du Mexique, les variétés sauvages, plus amères, s'emploient également à cet effet, une fois soigneusement lavées et nettoyées pour éliminer la cucurbitine. Le fruit mûr est grillé pour préparer des tartes ou employé pour nourrir les animaux.
 L'utilisation principale est celle des graines, qui sont grillées ou torréfiées, et incorporées dans diverses sauces, telles que le pipián de carne et le mole verde.
@@ -617,7 +635,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cucurbita argyrosperma se reproduit uniquement par graines. le semis se fait au début de la saison des pluies.
 Le cycle végétatif varie selon l'utilisation prévue de la plante et les caractéristiques du cultivar. Il va de trois mois pour les pousses et les fruits verts jusqu'à six mois pour le fruit complètement mûr.
